--- a/Наработки/книги/Демонолог/Заметки.xlsx
+++ b/Наработки/книги/Демонолог/Заметки.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A60067-231B-4198-B4FC-E39EBC26F7CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BBCDD-1D34-4843-8D14-97F7EEE87165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Класс и описание</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Ритуалистика - рисование пентаграмм, заключение договоров с демонами</t>
   </si>
   <si>
-    <t>Нанесение татуировок</t>
-  </si>
-  <si>
     <t>Контроль хаоса - демонологи при должном умении могут использовать заклинания хаоса</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Зелья</t>
   </si>
   <si>
-    <t>Силы магов</t>
-  </si>
-  <si>
     <t>Магнусовы цепи - позволяют управлять демонами как марионеткой и контролировать их. Несколько тонких цепей</t>
   </si>
   <si>
@@ -104,15 +98,6 @@
     <t>Семя Хаоса - отметка Хаоса ложащаяся на тех, кто не обладая  навыками защиты от Хаоса, подвергся его влиянию. Его наличие даёт потенциальную возможность перековать его в горн, и превратить душу в домен.</t>
   </si>
   <si>
-    <t>Империум – контроль Хаоса без соприкосновения с ним телом или душой.</t>
-  </si>
-  <si>
-    <t>Адоптио – принятие Хаоса в свое тело, или проще говоря, одержимость</t>
-  </si>
-  <si>
-    <t>Мергер – слияние с Хаосом, искусство которым владеют домены.</t>
-  </si>
-  <si>
     <t>Цепи воли (сменить название) - позволяет захватывать демонов и сдерживать их. Одна, или пара толстых цепей. Оковы Нерона</t>
   </si>
   <si>
@@ -122,22 +107,81 @@
     <t xml:space="preserve">Истиные глаза - </t>
   </si>
   <si>
-    <t>Хтонический нектар - фиолетовая кровь</t>
-  </si>
-  <si>
-    <t>Магнусовы цепи - цепи демонологов-доменов, позволяющие сдерживать и контролировать порождённых демонов.</t>
+    <t>Тело - необходимо качаться и пить элексиры необходимые для усиления тела.</t>
+  </si>
+  <si>
+    <t>Татуировки - чем качественней набиты тату из особых материалов, тем лучше контроль и сдерживание деомна</t>
+  </si>
+  <si>
+    <t>Сила демона который вселяется в одержимого</t>
+  </si>
+  <si>
+    <t>качаться и принимать эликсиры</t>
+  </si>
+  <si>
+    <t>добывать качественные компоненты для красок</t>
+  </si>
+  <si>
+    <t>заключать контракты с сильными демонами</t>
+  </si>
+  <si>
+    <t>Общие определения</t>
+  </si>
+  <si>
+    <t>Империум – контроль Хаоса без соприкосновения с ним телом или душой. Практикующих эту ветвь искусства называют чародеями.</t>
+  </si>
+  <si>
+    <t>Адоптио – принятие Хаоса в свое тело, или проще говоря, одержимость.  Практикующих эту ветвь искусства называют чародеями.</t>
+  </si>
+  <si>
+    <t>Мергер – слияние с Хаосом, искусство которым владеют домены.  Практикующих эту ветвь искусства называют магами-домена, или же просто доменами.</t>
+  </si>
+  <si>
+    <t>Хтонический нектар - фиолетовая кровь, не только привлекающая к себе демонов, но и увеличивающая их силы.</t>
+  </si>
+  <si>
+    <t>Оковы Нерона - цепи демонологов-чародеев, позволяющие сдерживать и контролировать призванных демонов. Помимо прочего является отличным оружием демонолога.</t>
+  </si>
+  <si>
+    <t>Магнусовы цепи - цепи демонологов-доменов, позволяющие сдерживать и контролировать порождённых демонов. Помимо прочего является отличным оружием демонолога.</t>
+  </si>
+  <si>
+    <t>Ачари - люди лишённые даров Хаоса, Порядка или Астрала.</t>
+  </si>
+  <si>
+    <t>Ветви искуств одарённых</t>
+  </si>
+  <si>
+    <t>Силы демонологов</t>
+  </si>
+  <si>
+    <t>Паладины -  воины следующие определенным кодексам на деле и в мыслях. Чем крепче их вера в кодекс ордена, тем сильнее они. Под стлой веры убеждений, у них формируется ангел-хранитель который усиливает паладина</t>
+  </si>
+  <si>
+    <t>Инвизитоы - маги способные призывать и контролировать свет.</t>
+  </si>
+  <si>
+    <t>Созидатели - способны кристализировать всё что угодно и создавать "големов".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,23 +246,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +553,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,12 +575,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
+      <c r="A2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -539,56 +589,66 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
+      <c r="A8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -597,27 +657,27 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -633,75 +693,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="201.140625" customWidth="1"/>
+    <col min="1" max="1" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
+      <c r="A4" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
+      <c r="A8" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
+      <c r="A11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Демонолог/Заметки.xlsx
+++ b/Наработки/книги/Демонолог/Заметки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BBCDD-1D34-4843-8D14-97F7EEE87165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FBF8B-BF89-4C66-821D-EA39CF7F7F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Класс и описание</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Созидатели - способны кристализировать всё что угодно и создавать "големов".</t>
+  </si>
+  <si>
+    <t>Демоны</t>
+  </si>
+  <si>
+    <t>Импы - низшие создание в пищевой цепочке демонов. Не имеют особых способностей кроме многочисленности</t>
+  </si>
+  <si>
+    <t>Бесы - низшие демоны способные летать и плаваться обычным огнём. В зависимости от опдвида погут иметь дополнительные способности</t>
+  </si>
+  <si>
+    <t>Малауты - среднеуровневые демоны, с поразительными способностями к скрытию и острейшими когтями. Засчёт последних двух свойств крайне опасны, и могут предстовлять опасность даже для некоторых демонов уровнем выше</t>
   </si>
 </sst>
 </file>
@@ -246,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -264,11 +276,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +594,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -593,7 +608,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -603,7 +618,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -613,7 +628,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -627,7 +642,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>29</v>
@@ -637,7 +652,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -647,7 +662,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -661,7 +676,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
@@ -671,7 +686,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -693,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +755,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -797,6 +812,26 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Демонолог/Заметки.xlsx
+++ b/Наработки/книги/Демонолог/Заметки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FBF8B-BF89-4C66-821D-EA39CF7F7F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13BBD4C-4C0D-4BB2-993C-4CD79168E5EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Класс и описание</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Дары Хаоса</t>
   </si>
   <si>
-    <t xml:space="preserve">Истиные глаза - </t>
-  </si>
-  <si>
     <t>Тело - необходимо качаться и пить элексиры необходимые для усиления тела.</t>
   </si>
   <si>
@@ -174,18 +171,32 @@
   </si>
   <si>
     <t>Малауты - среднеуровневые демоны, с поразительными способностями к скрытию и острейшими когтями. Засчёт последних двух свойств крайне опасны, и могут предстовлять опасность даже для некоторых демонов уровнем выше</t>
+  </si>
+  <si>
+    <t>Териак - особое растение, являющееся универсальным противоядием.</t>
+  </si>
+  <si>
+    <t>Истиные глаза - жёлтые глаза демонов, способные визуализировать энергию Хаоса и увидеть скрывающихся созданий.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,32 +269,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +608,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -608,7 +622,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -618,7 +632,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -628,41 +642,41 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -676,7 +690,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
@@ -686,7 +700,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -708,7 +722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -725,113 +739,118 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
+      <c r="A4" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
+      <c r="A5" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
+      <c r="A9" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>34</v>
+      <c r="A18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
+      <c r="A19" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>47</v>
+      <c r="A20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
+      <c r="A21" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Демонолог/Заметки.xlsx
+++ b/Наработки/книги/Демонолог/Заметки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13BBD4C-4C0D-4BB2-993C-4CD79168E5EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15918DF1-300B-4AA2-8CD7-1365F820D84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Класс и описание</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Истиные глаза - жёлтые глаза демонов, способные визуализировать энергию Хаоса и увидеть скрывающихся созданий.</t>
+  </si>
+  <si>
+    <t>Лимбо - зелёная роза светящаяся в темноте, способная подарить рандомную мутацию любому демону</t>
+  </si>
+  <si>
+    <t>Кантарелла - летальный яд создаваемый из красного цветка Кантареллы, так же способен усилить демонов обладающих ядами.</t>
   </si>
 </sst>
 </file>
@@ -293,11 +299,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +614,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -622,7 +628,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -632,7 +638,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -642,7 +648,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -656,7 +662,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -666,7 +672,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
         <v>29</v>
@@ -676,7 +682,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -690,7 +696,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
@@ -700,7 +706,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -722,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +745,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -749,107 +755,117 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>41</v>
+      <c r="A9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
+      <c r="A11" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
+      <c r="A16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>46</v>
+      <c r="A21" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
+      <c r="A23" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Наработки/книги/Демонолог/Заметки.xlsx
+++ b/Наработки/книги/Демонолог/Заметки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15918DF1-300B-4AA2-8CD7-1365F820D84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4618C69-6776-461E-9ABC-80627FCF1026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
